--- a/web/WBTBSsystem/testOut.xlsx
+++ b/web/WBTBSsystem/testOut.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,19 +481,44 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45349.39583333334</v>
+        <v>45351.72916666666</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45349.4375</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>system.TugBoat.None</t>
-        </is>
-      </c>
+        <v>45351.77083333334</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CB2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Departure</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45351.72916666666</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45351.77083333334</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADB0078
+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
         </is>
       </c>
     </row>
